--- a/STOK DEALER/STOK LSP.xlsx
+++ b/STOK DEALER/STOK LSP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Wanda - PSD\HIL\HIL 2025\STOK DEALER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EB776E6-FB2B-48F9-BE1A-700218743795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A9547E4-32A6-4849-926D-B733851BA60D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5955" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{46E7093F-A843-4D56-8D6E-D290D3117D3B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{46E7093F-A843-4D56-8D6E-D290D3117D3B}"/>
   </bookViews>
   <sheets>
     <sheet name="STOK DEALER" sheetId="1" r:id="rId1"/>
@@ -6692,13 +6692,13 @@
         <v>53</v>
       </c>
       <c r="F26" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G26" s="2">
         <v>0</v>
       </c>
       <c r="H26" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -6978,13 +6978,13 @@
         <v>59</v>
       </c>
       <c r="F37" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G37" s="2">
         <v>0</v>
       </c>
       <c r="H37" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -7992,13 +7992,13 @@
         <v>141</v>
       </c>
       <c r="F76" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G76" s="2">
         <v>0</v>
       </c>
       <c r="H76" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -8148,13 +8148,13 @@
         <v>157</v>
       </c>
       <c r="F82" s="2">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G82" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H82" s="2">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -8278,10 +8278,10 @@
         <v>171</v>
       </c>
       <c r="F87" s="2">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G87" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H87" s="2">
         <v>39</v>
@@ -8304,13 +8304,13 @@
         <v>162</v>
       </c>
       <c r="F88" s="2">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G88" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H88" s="2">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -8382,10 +8382,10 @@
         <v>181</v>
       </c>
       <c r="F91" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G91" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H91" s="2">
         <v>175</v>
@@ -8408,13 +8408,13 @@
         <v>184</v>
       </c>
       <c r="F92" s="2">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G92" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H92" s="2">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -8486,10 +8486,10 @@
         <v>190</v>
       </c>
       <c r="F95" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G95" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H95" s="2">
         <v>85</v>
@@ -9633,10 +9633,10 @@
         <v>2</v>
       </c>
       <c r="G139" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H139" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
@@ -9786,10 +9786,10 @@
         <v>282</v>
       </c>
       <c r="F145" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G145" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H145" s="2">
         <v>3</v>
@@ -9838,10 +9838,10 @@
         <v>273</v>
       </c>
       <c r="F147" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G147" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H147" s="2">
         <v>0</v>
@@ -10878,13 +10878,13 @@
         <v>371</v>
       </c>
       <c r="F187" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G187" s="2">
         <v>0</v>
       </c>
       <c r="H187" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
@@ -12074,13 +12074,13 @@
         <v>463</v>
       </c>
       <c r="F233" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G233" s="2">
         <v>0</v>
       </c>
       <c r="H233" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
@@ -12620,13 +12620,13 @@
         <v>500</v>
       </c>
       <c r="F254" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G254" s="2">
         <v>0</v>
       </c>
       <c r="H254" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
@@ -14440,13 +14440,13 @@
         <v>438</v>
       </c>
       <c r="F324" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G324" s="2">
         <v>0</v>
       </c>
       <c r="H324" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="325" spans="1:8" x14ac:dyDescent="0.25">
@@ -18132,13 +18132,13 @@
         <v>894</v>
       </c>
       <c r="F466" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G466" s="2">
         <v>0</v>
       </c>
       <c r="H466" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467" spans="1:8" x14ac:dyDescent="0.25">
@@ -18158,10 +18158,10 @@
         <v>639</v>
       </c>
       <c r="F467" s="2">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="G467" s="2">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="H467" s="2">
         <v>4</v>
@@ -18210,10 +18210,10 @@
         <v>904</v>
       </c>
       <c r="F469" s="2">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="G469" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H469" s="2">
         <v>26</v>
@@ -18314,10 +18314,10 @@
         <v>909</v>
       </c>
       <c r="F473" s="2">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G473" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H473" s="2">
         <v>25</v>
@@ -18730,13 +18730,13 @@
         <v>894</v>
       </c>
       <c r="F489" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G489" s="2">
         <v>0</v>
       </c>
       <c r="H489" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="490" spans="1:8" x14ac:dyDescent="0.25">
@@ -18782,10 +18782,10 @@
         <v>891</v>
       </c>
       <c r="F491" s="2">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="G491" s="2">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="H491" s="2">
         <v>5</v>
@@ -18834,13 +18834,13 @@
         <v>729</v>
       </c>
       <c r="F493" s="2">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G493" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H493" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="494" spans="1:8" x14ac:dyDescent="0.25">
@@ -18912,10 +18912,10 @@
         <v>909</v>
       </c>
       <c r="F496" s="2">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G496" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H496" s="2">
         <v>25</v>
@@ -21642,13 +21642,13 @@
         <v>1156</v>
       </c>
       <c r="F601" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G601" s="2">
         <v>1</v>
       </c>
       <c r="H601" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="602" spans="1:8" x14ac:dyDescent="0.25">
@@ -21746,13 +21746,13 @@
         <v>1163</v>
       </c>
       <c r="F605" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G605" s="2">
         <v>0</v>
       </c>
       <c r="H605" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="606" spans="1:8" x14ac:dyDescent="0.25">
@@ -24398,13 +24398,13 @@
         <v>1364</v>
       </c>
       <c r="F707" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G707" s="2">
         <v>1</v>
       </c>
       <c r="H707" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="708" spans="1:8" x14ac:dyDescent="0.25">
@@ -27180,10 +27180,10 @@
         <v>344</v>
       </c>
       <c r="F814" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G814" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H814" s="2">
         <v>0</v>
@@ -27258,10 +27258,10 @@
         <v>322</v>
       </c>
       <c r="F817" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G817" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H817" s="2">
         <v>0</v>
@@ -27336,10 +27336,10 @@
         <v>322</v>
       </c>
       <c r="F820" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G820" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H820" s="2">
         <v>0</v>
@@ -27596,10 +27596,10 @@
         <v>1607</v>
       </c>
       <c r="F830" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G830" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H830" s="2">
         <v>1</v>
@@ -27778,13 +27778,13 @@
         <v>656</v>
       </c>
       <c r="F837" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G837" s="2">
         <v>0</v>
       </c>
       <c r="H837" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="838" spans="1:8" x14ac:dyDescent="0.25">
@@ -29598,13 +29598,13 @@
         <v>11</v>
       </c>
       <c r="F907" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G907" s="2">
         <v>0</v>
       </c>
       <c r="H907" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="908" spans="1:8" x14ac:dyDescent="0.25">
@@ -29705,10 +29705,10 @@
         <v>5</v>
       </c>
       <c r="G911" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H911" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="912" spans="1:8" x14ac:dyDescent="0.25">
@@ -31028,13 +31028,13 @@
         <v>430</v>
       </c>
       <c r="F962" s="2">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="G962" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H962" s="2">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/STOK DEALER/STOK LSP.xlsx
+++ b/STOK DEALER/STOK LSP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Wanda - PSD\HIL\HIL 2025\STOK DEALER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A9547E4-32A6-4849-926D-B733851BA60D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD1D5A6-C147-46D0-9E55-48E97E759599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{46E7093F-A843-4D56-8D6E-D290D3117D3B}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11295" xr2:uid="{46E7093F-A843-4D56-8D6E-D290D3117D3B}"/>
   </bookViews>
   <sheets>
     <sheet name="STOK DEALER" sheetId="1" r:id="rId1"/>
@@ -8044,13 +8044,13 @@
         <v>147</v>
       </c>
       <c r="F78" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G78" s="2">
         <v>2</v>
       </c>
       <c r="H78" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -8148,13 +8148,13 @@
         <v>157</v>
       </c>
       <c r="F82" s="2">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G82" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H82" s="2">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -8281,10 +8281,10 @@
         <v>42</v>
       </c>
       <c r="G87" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H87" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -8304,13 +8304,13 @@
         <v>162</v>
       </c>
       <c r="F88" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G88" s="2">
         <v>13</v>
       </c>
       <c r="H88" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -8385,10 +8385,10 @@
         <v>178</v>
       </c>
       <c r="G91" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H91" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -8408,13 +8408,13 @@
         <v>184</v>
       </c>
       <c r="F92" s="2">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G92" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H92" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -12623,10 +12623,10 @@
         <v>2</v>
       </c>
       <c r="G254" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H254" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
@@ -13637,10 +13637,10 @@
         <v>2</v>
       </c>
       <c r="G293" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H293" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.25">
@@ -14105,10 +14105,10 @@
         <v>1</v>
       </c>
       <c r="G311" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H311" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.25">
@@ -14417,10 +14417,10 @@
         <v>14</v>
       </c>
       <c r="G323" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H323" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.25">
@@ -15610,13 +15610,13 @@
         <v>692</v>
       </c>
       <c r="F369" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G369" s="2">
         <v>0</v>
       </c>
       <c r="H369" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="370" spans="1:8" x14ac:dyDescent="0.25">
@@ -17251,10 +17251,10 @@
         <v>4</v>
       </c>
       <c r="G432" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H432" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="433" spans="1:8" x14ac:dyDescent="0.25">
@@ -18187,10 +18187,10 @@
         <v>4</v>
       </c>
       <c r="G468" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H468" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="469" spans="1:8" x14ac:dyDescent="0.25">
@@ -27781,10 +27781,10 @@
         <v>15</v>
       </c>
       <c r="G837" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H837" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="838" spans="1:8" x14ac:dyDescent="0.25">
@@ -31028,13 +31028,13 @@
         <v>430</v>
       </c>
       <c r="F962" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G962" s="2">
+        <v>2</v>
+      </c>
+      <c r="H962" s="2">
         <v>1</v>
-      </c>
-      <c r="H962" s="2">
-        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/STOK DEALER/STOK LSP.xlsx
+++ b/STOK DEALER/STOK LSP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Wanda - PSD\HIL\HIL 2025\STOK DEALER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DEA4533-6C5F-434F-BD85-E9657F24FF44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4524119B-B7C1-4B1F-8BEC-3CAB16B18959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{46E7093F-A843-4D56-8D6E-D290D3117D3B}"/>
   </bookViews>
@@ -6707,13 +6707,13 @@
         <v>53</v>
       </c>
       <c r="F26" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G26" s="2">
         <v>0</v>
       </c>
       <c r="H26" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -6837,13 +6837,13 @@
         <v>59</v>
       </c>
       <c r="F31" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G31" s="2">
         <v>0</v>
       </c>
       <c r="H31" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -7149,13 +7149,13 @@
         <v>59</v>
       </c>
       <c r="F43" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G43" s="2">
         <v>0</v>
       </c>
       <c r="H43" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -8007,10 +8007,10 @@
         <v>141</v>
       </c>
       <c r="F76" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G76" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76" s="2">
         <v>60</v>
@@ -8163,13 +8163,13 @@
         <v>157</v>
       </c>
       <c r="F82" s="2">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G82" s="2">
         <v>10</v>
       </c>
       <c r="H82" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -8293,13 +8293,13 @@
         <v>171</v>
       </c>
       <c r="F87" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G87" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H87" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -8319,13 +8319,13 @@
         <v>162</v>
       </c>
       <c r="F88" s="2">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="G88" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H88" s="2">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -8397,13 +8397,13 @@
         <v>181</v>
       </c>
       <c r="F91" s="2">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G91" s="2">
         <v>6</v>
       </c>
       <c r="H91" s="2">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -8423,10 +8423,10 @@
         <v>184</v>
       </c>
       <c r="F92" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G92" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H92" s="2">
         <v>38</v>
@@ -8501,13 +8501,13 @@
         <v>190</v>
       </c>
       <c r="F95" s="2">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G95" s="2">
         <v>1</v>
       </c>
       <c r="H95" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -14923,13 +14923,13 @@
         <v>643</v>
       </c>
       <c r="F342" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G342" s="2">
         <v>0</v>
       </c>
       <c r="H342" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="343" spans="1:8" x14ac:dyDescent="0.25">
@@ -17549,13 +17549,13 @@
         <v>850</v>
       </c>
       <c r="F443" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G443" s="2">
         <v>0</v>
       </c>
       <c r="H443" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="444" spans="1:8" x14ac:dyDescent="0.25">
@@ -21683,13 +21683,13 @@
         <v>1156</v>
       </c>
       <c r="F602" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G602" s="2">
         <v>1</v>
       </c>
       <c r="H602" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="603" spans="1:8" x14ac:dyDescent="0.25">
@@ -24439,13 +24439,13 @@
         <v>1364</v>
       </c>
       <c r="F708" s="2">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="G708" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H708" s="2">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="709" spans="1:8" x14ac:dyDescent="0.25">
@@ -28675,13 +28675,13 @@
         <v>1667</v>
       </c>
       <c r="F871" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G871" s="2">
         <v>0</v>
       </c>
       <c r="H871" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="872" spans="1:8" x14ac:dyDescent="0.25">
@@ -30365,13 +30365,13 @@
         <v>18</v>
       </c>
       <c r="F936" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G936" s="2">
         <v>0</v>
       </c>
       <c r="H936" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="937" spans="1:8" x14ac:dyDescent="0.25">
